--- a/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/unfreeze/ce-uniform/14298463/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/unfreeze/ce-uniform/14298463/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9809446334838867</v>
+        <v>0.335529088973999</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9810031652450562</v>
+        <v>0.3348928391933441</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9810702800750732</v>
+        <v>0.335065484046936</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8075092434883118</v>
+        <v>0.1949830949306488</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9810931086540222</v>
+        <v>0.3354640007019043</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.981122612953186</v>
+        <v>0.335978627204895</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9811350107192993</v>
+        <v>0.3363543748855591</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9806047677993774</v>
+        <v>0.3357940316200256</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9811350107192993</v>
+        <v>0.3363543748855591</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.786409854888916</v>
+        <v>0.1842774152755737</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9811923503875732</v>
+        <v>0.337042361497879</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9387536644935608</v>
+        <v>0.2746489644050598</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9811514019966125</v>
+        <v>0.3359596729278564</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9811040163040161</v>
+        <v>0.3358886241912842</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.981007993221283</v>
+        <v>0.3355086445808411</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9810780882835388</v>
+        <v>0.3355143666267395</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.453641414642334</v>
+        <v>0.1862309873104095</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9811092615127563</v>
+        <v>0.3361957371234894</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9811421036720276</v>
+        <v>0.33648282289505</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9810038208961487</v>
+        <v>0.3352524042129517</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9811084866523743</v>
+        <v>0.3359598219394684</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9811457991600037</v>
+        <v>0.3362909257411957</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9811868667602539</v>
+        <v>0.3364831209182739</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8081914186477661</v>
+        <v>0.194419264793396</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4547972679138184</v>
+        <v>0.186584010720253</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9810569882392883</v>
+        <v>0.3355641663074493</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9810031652450562</v>
+        <v>0.3348928391933441</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9810997843742371</v>
+        <v>0.3352090716362</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9811091423034668</v>
+        <v>0.3355318605899811</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.981016218662262</v>
+        <v>0.334791511297226</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.981065571308136</v>
+        <v>0.3359371423721313</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9089349508285522</v>
+        <v>0.2261970788240433</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9386796355247498</v>
+        <v>0.2749780416488647</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9379410743713379</v>
+        <v>0.2723994255065918</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9811298251152039</v>
+        <v>0.3359313905239105</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9383156895637512</v>
+        <v>0.2739575207233429</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9812224507331848</v>
+        <v>0.3367884457111359</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9367511868476868</v>
+        <v>0.2731834053993225</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8427999019622803</v>
+        <v>0.226949468255043</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9812089204788208</v>
+        <v>0.3368887901306152</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7378559708595276</v>
+        <v>0.1929264813661575</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9107027649879456</v>
+        <v>0.2273944914340973</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9386041760444641</v>
+        <v>0.2733279764652252</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9105223417282104</v>
+        <v>0.2270308136940002</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9094948768615723</v>
+        <v>0.2264582067728043</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7900903224945068</v>
+        <v>0.1944195777177811</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9089691638946533</v>
+        <v>0.2253519147634506</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9812223315238953</v>
+        <v>0.3369449973106384</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9097803831100464</v>
+        <v>0.2263229042291641</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9051002860069275</v>
+        <v>0.2236682921648026</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9809744954109192</v>
+        <v>0.3348090052604675</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9097803831100464</v>
+        <v>0.2263229042291641</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9094879031181335</v>
+        <v>0.2264413833618164</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9810866713523865</v>
+        <v>0.3359877169132233</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9812121987342834</v>
+        <v>0.3365011215209961</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9812204837799072</v>
+        <v>0.3369543552398682</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9380946159362793</v>
+        <v>0.2728287577629089</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9811440706253052</v>
+        <v>0.3369728624820709</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9810355305671692</v>
+        <v>0.3360680043697357</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9811339378356934</v>
+        <v>0.3364865183830261</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9811722636222839</v>
+        <v>0.3366599977016449</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9387659430503845</v>
+        <v>0.2732155919075012</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5548350811004639</v>
+        <v>0.2702096104621887</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9380141496658325</v>
+        <v>0.2726185917854309</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9380141496658325</v>
+        <v>0.2726185917854309</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9386299252510071</v>
+        <v>0.2731347680091858</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9380141496658325</v>
+        <v>0.2726185917854309</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8650559782981873</v>
+        <v>0.198379322886467</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9811277389526367</v>
+        <v>0.3359896838665009</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9362431168556213</v>
+        <v>0.2741701602935791</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9808388948440552</v>
+        <v>0.3334077298641205</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9382830262184143</v>
+        <v>0.2741062343120575</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9811092615127563</v>
+        <v>0.3359700739383698</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9811136722564697</v>
+        <v>0.3355312347412109</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9382830262184143</v>
+        <v>0.2741062343120575</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9810351729393005</v>
+        <v>0.3348143696784973</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9382830262184143</v>
+        <v>0.2741062343120575</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.981179416179657</v>
+        <v>0.3362480401992798</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9383625984191895</v>
+        <v>0.274050772190094</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9810528159141541</v>
+        <v>0.3348061442375183</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9383625984191895</v>
+        <v>0.274050772190094</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9809050559997559</v>
+        <v>0.333726555109024</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9809050559997559</v>
+        <v>0.333726555109024</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9812240600585938</v>
+        <v>0.3370719254016876</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9386345744132996</v>
+        <v>0.2739944159984589</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9809510707855225</v>
+        <v>0.3359628021717072</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9384565949440002</v>
+        <v>0.2739923298358917</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9810869097709656</v>
+        <v>0.3347598612308502</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9810468554496765</v>
+        <v>0.335931271314621</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9810423851013184</v>
+        <v>0.3359269499778748</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9810660481452942</v>
+        <v>0.3359278738498688</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9810747504234314</v>
+        <v>0.3359272181987762</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9810457229614258</v>
+        <v>0.335940420627594</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9810470938682556</v>
+        <v>0.3359308540821075</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.981202244758606</v>
+        <v>0.3369845151901245</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5165960788726807</v>
+        <v>0.1560312509536743</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9811643958091736</v>
+        <v>0.336787074804306</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9809639453887939</v>
+        <v>0.3347220718860626</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9811156988143921</v>
+        <v>0.3352403044700623</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9810499548912048</v>
+        <v>0.3362266421318054</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7969866991043091</v>
+        <v>0.187095120549202</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9808118343353271</v>
+        <v>0.3361240029335022</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9811166524887085</v>
+        <v>0.3355417847633362</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.866124153137207</v>
+        <v>0.2000149488449097</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9810654520988464</v>
+        <v>0.3352428078651428</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.910689115524292</v>
+        <v>0.2278013229370117</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.7995337843894958</v>
+        <v>0.1925010681152344</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9810729026794434</v>
+        <v>0.3355989158153534</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9810031652450562</v>
+        <v>0.3348928391933441</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9089580774307251</v>
+        <v>0.2262268215417862</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9102354645729065</v>
+        <v>0.2272576689720154</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9386411905288696</v>
+        <v>0.2747839689254761</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9811925888061523</v>
+        <v>0.3366627991199493</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9387251138687134</v>
+        <v>0.2746107876300812</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9808057546615601</v>
+        <v>0.3336971402168274</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9809727668762207</v>
+        <v>0.3345784246921539</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.8394050002098083</v>
+        <v>0.1948571801185608</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9812059998512268</v>
+        <v>0.3363703787326813</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9810031652450562</v>
+        <v>0.3348928391933441</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.8654084801673889</v>
+        <v>0.198228657245636</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9811593294143677</v>
+        <v>0.3368793129920959</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.8654084801673889</v>
+        <v>0.198228657245636</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9811593294143677</v>
+        <v>0.3368793129920959</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.8654084801673889</v>
+        <v>0.198228657245636</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9812214970588684</v>
+        <v>0.3367153406143188</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9809547662734985</v>
+        <v>0.334961473941803</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9810031652450562</v>
+        <v>0.3348928391933441</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9811464548110962</v>
+        <v>0.3358670771121979</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9810978174209595</v>
+        <v>0.3352066576480865</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9809592366218567</v>
+        <v>0.3346216976642609</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8362995386123657</v>
+        <v>0.2095347493886948</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9810020923614502</v>
+        <v>0.3354772925376892</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9811094999313354</v>
+        <v>0.3359437882900238</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9811463356018066</v>
+        <v>0.3359794914722443</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.98087078332901</v>
+        <v>0.3336960077285767</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9810448288917542</v>
+        <v>0.3355472683906555</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9809632301330566</v>
+        <v>0.3346762955188751</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9809563755989075</v>
+        <v>0.3346586227416992</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9810506701469421</v>
+        <v>0.33482825756073</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.5387961864471436</v>
+        <v>0.2011373043060303</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9810031652450562</v>
+        <v>0.3348928391933441</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9379842281341553</v>
+        <v>0.2724920213222504</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9811546206474304</v>
+        <v>0.3361689746379852</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9379842281341553</v>
+        <v>0.2724920213222504</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.980916440486908</v>
+        <v>0.3337492346763611</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.8650559782981873</v>
+        <v>0.198379322886467</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9810901284217834</v>
+        <v>0.3356548249721527</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9385079145431519</v>
+        <v>0.2738935053348541</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.8662652969360352</v>
+        <v>0.1980921775102615</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9810031652450562</v>
+        <v>0.3348928391933441</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.4849815666675568</v>
+        <v>0.1895508170127869</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9811830520629883</v>
+        <v>0.3368427455425262</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.7955358624458313</v>
+        <v>0.1936909854412079</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9811872243881226</v>
+        <v>0.3364560306072235</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.7943238615989685</v>
+        <v>0.1935924291610718</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9811493158340454</v>
+        <v>0.3361745476722717</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.795155942440033</v>
+        <v>0.19359290599823</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9811290502548218</v>
+        <v>0.3363609313964844</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9387317299842834</v>
+        <v>0.2741175293922424</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9811059832572937</v>
+        <v>0.3355453908443451</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9796165227890015</v>
+        <v>0.3364132940769196</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9809430241584778</v>
+        <v>0.3346819579601288</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9378452897071838</v>
+        <v>0.2724811732769012</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9812390804290771</v>
+        <v>0.3370026350021362</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9808310866355896</v>
+        <v>0.3337903022766113</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9073445200920105</v>
+        <v>0.2236398607492447</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9388270974159241</v>
+        <v>0.2745338082313538</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9810031652450562</v>
+        <v>0.3348928391933441</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9073445200920105</v>
+        <v>0.2236398607492447</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9388409852981567</v>
+        <v>0.2743985652923584</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9810031652450562</v>
+        <v>0.3348928391933441</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9809380173683167</v>
+        <v>0.3346594870090485</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9809616208076477</v>
+        <v>0.3346571326255798</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9809380173683167</v>
+        <v>0.3346594870090485</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9809380173683167</v>
+        <v>0.3346594870090485</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9809616208076477</v>
+        <v>0.3346571326255798</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9810689091682434</v>
+        <v>0.3356492221355438</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9807478189468384</v>
+        <v>0.3334681987762451</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9811326861381531</v>
+        <v>0.3355428576469421</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.981107234954834</v>
+        <v>0.3363011479377747</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9811899662017822</v>
+        <v>0.3359980583190918</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.866271436214447</v>
+        <v>0.1994272321462631</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9811857342720032</v>
+        <v>0.3366110324859619</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9811140894889832</v>
+        <v>0.3367409706115723</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9810969829559326</v>
+        <v>0.3365219533443451</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9811907410621643</v>
+        <v>0.3363757133483887</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9811385273933411</v>
+        <v>0.3356575965881348</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9810534119606018</v>
+        <v>0.3358591794967651</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9810441136360168</v>
+        <v>0.3358950614929199</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.4826720058917999</v>
+        <v>0.155290812253952</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9811874628067017</v>
+        <v>0.335974246263504</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9810574054718018</v>
+        <v>0.3355169594287872</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.8648875951766968</v>
+        <v>0.1979694664478302</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.909247875213623</v>
+        <v>0.2266740947961807</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.981198787689209</v>
+        <v>0.3366372883319855</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9811840057373047</v>
+        <v>0.3363805413246155</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9811610579490662</v>
+        <v>0.3365489542484283</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9811103343963623</v>
+        <v>0.3362827301025391</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9334284663200378</v>
+        <v>0.2742604613304138</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9811208844184875</v>
+        <v>0.3361736536026001</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9811309576034546</v>
+        <v>0.336274117231369</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9811046719551086</v>
+        <v>0.3355074524879456</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9072913527488708</v>
+        <v>0.2237004190683365</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9811251163482666</v>
+        <v>0.3366526961326599</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9809502959251404</v>
+        <v>0.3346832394599915</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.5078206658363342</v>
+        <v>0.1550727933645248</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9807822704315186</v>
+        <v>0.3333468437194824</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.4021156132221222</v>
+        <v>0.1873768717050552</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9810710549354553</v>
+        <v>0.3355637490749359</v>
       </c>
     </row>
   </sheetData>
